--- a/urlc.xlsx
+++ b/urlc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INTERNET MARKETING\Keyword\contoh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\INTERNET MARKETING\KEYWORDS\key-contoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/urlc.xlsx
+++ b/urlc.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/urlc.xlsx
+++ b/urlc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\INTERNET MARKETING\KEYWORDS\key-contoh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INTERNET MARKETING\Keyword\contoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
